--- a/Swaglabs.xlsx
+++ b/Swaglabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A594E2-3547-4D54-A04E-6F24F8592D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EF52B4-99B6-49A9-81EA-F76BEF1B3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B96322A6-E480-43F2-9827-E01A3B2F7A0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Test Cases for Login Page in Excel Sheet(Swag Labs)</t>
   </si>
@@ -202,6 +202,21 @@
     <t>a. valid Username
 b. Invalid Password
 c. Button clicked</t>
+  </si>
+  <si>
+    <t>Login_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification of Login Page using a Problem facing  username and correct password </t>
+  </si>
+  <si>
+    <t>Log in Successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product page was visible </t>
+  </si>
+  <si>
+    <t>Product images were not visible to the user</t>
   </si>
 </sst>
 </file>
@@ -336,14 +351,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -353,9 +365,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,9 +372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,16 +398,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B5A69-D45E-409D-9612-70CDC89F4BF5}">
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,287 +778,318 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="21">
         <v>45382</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="4" t="str">
         <f>IF(OR(G10=I10,I10="As expected"),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="4" t="str">
         <f t="shared" ref="J11:J12" si="0">IF(OR(G11=I11,I11="As expected"),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="4" t="str">
         <f>IF(OR(G13=I13,I13="As expected"),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="4" t="str">
         <f>IF(OR(G14=I14,I14="As expected"),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>IF(OR(G15=I15,I15="As expected"),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="10" t="str">
-        <f>IF(OR(G15=I15,I15="As expected"),"Pass","Fail")</f>
+      <c r="J16" s="4" t="str">
+        <f>IF(OR(G16=I16,I16="As expected"),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="18" spans="8:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="20" spans="8:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="18"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="19" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
